--- a/Rezultate/results.xlsx
+++ b/Rezultate/results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ioana-Roxana\Desktop\Proiect_licenta\Rezultate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{9E83E63E-FD18-4746-A2BF-878E3D02E274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5257783B-014D-4E8F-AFF3-C55B44EEBEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lightGBM" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="85">
   <si>
     <t>Configuration</t>
   </si>
@@ -297,131 +297,11 @@
   <si>
     <t>config=4,  shuffle=False, pca=False, scal=True, minmax=False, lasso=False</t>
   </si>
-  <si>
-    <t>config=4, pca=False, scal=True, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=4, pca=False, scal=False, lasso=False, minmax=True</t>
-  </si>
-  <si>
-    <t>config=4, pca=False, scal=False, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=4, pca=False, scal=False, lasso=True, minmax=True</t>
-  </si>
-  <si>
-    <t>config=1, pca=False, scal=True, lasso=True, minmax=False</t>
-  </si>
-  <si>
-    <t>config=1, pca=False, scal=False, lasso=True, minmax=True</t>
-  </si>
-  <si>
-    <t>config=2, pca=False, scal=True, lasso=True, minmax=False</t>
-  </si>
-  <si>
-    <t>config=2, pca=False, scal=False, lasso=True, minmax=True</t>
-  </si>
-  <si>
-    <t>config=4, pca=True, scal=False, lasso=False, minmax=True</t>
-  </si>
-  <si>
-    <t>config=4, pca=True, scal=True, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=1, pca=True, scal=True, lasso=True, minmax=False</t>
-  </si>
-  <si>
-    <t>config=2, pca=True, scal=True, lasso=True, minmax=False</t>
-  </si>
-  <si>
-    <t>config=4, pca=False, scal=True, lasso=True, minmax=False</t>
-  </si>
-  <si>
-    <t>config=1, pca=True, scal=True, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=1, pca=True, scal=False, lasso=True, minmax=True</t>
-  </si>
-  <si>
-    <t>config=1, pca=True, scal=False, lasso=False, minmax=True</t>
-  </si>
-  <si>
-    <t>config=1, pca=True, scal=False, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=2, pca=True, scal=True, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=2, pca=True, scal=False, lasso=True, minmax=True</t>
-  </si>
-  <si>
-    <t>config=2, pca=True, scal=False, lasso=False, minmax=True</t>
-  </si>
-  <si>
-    <t>config=2, pca=True, scal=False, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=2, pca=False, scal=True, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=2, pca=False, scal=False, lasso=False, minmax=True</t>
-  </si>
-  <si>
-    <t>config=2, pca=False, scal=False, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=3, pca=True, scal=True, lasso=True, minmax=False</t>
-  </si>
-  <si>
-    <t>config=3, pca=True, scal=True, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=3, pca=True, scal=False, lasso=True, minmax=True</t>
-  </si>
-  <si>
-    <t>config=3, pca=True, scal=False, lasso=False, minmax=True</t>
-  </si>
-  <si>
-    <t>config=3, pca=True, scal=False, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=3, pca=False, scal=True, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=3, pca=False, scal=False, lasso=False, minmax=True</t>
-  </si>
-  <si>
-    <t>config=3, pca=False, scal=False, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=4, pca=True, scal=False, lasso=True, minmax=True</t>
-  </si>
-  <si>
-    <t>config=3, pca=False, scal=False, lasso=True, minmax=True</t>
-  </si>
-  <si>
-    <t>config=1, pca=False, scal=True, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=1, pca=False, scal=False, lasso=False, minmax=True</t>
-  </si>
-  <si>
-    <t>config=1, pca=False, scal=False, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=4, pca=True, scal=True, lasso=True, minmax=False</t>
-  </si>
-  <si>
-    <t>config=4, pca=True, scal=False, lasso=False, minmax=False</t>
-  </si>
-  <si>
-    <t>config=3, pca=False, scal=True, lasso=True, minmax=False</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,7 +646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2161,7 +2041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3556,7 +3436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6294,16 +6174,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" customWidth="1"/>
+    <col min="1" max="1" width="63.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -6325,7 +6205,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>0.88358678552700498</v>
@@ -6342,7 +6222,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.88358678552700498</v>
@@ -6359,7 +6239,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0.88358678552700498</v>
@@ -6376,7 +6256,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0.86624539231174302</v>
@@ -6393,7 +6273,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>0.85714285714285698</v>
@@ -6410,7 +6290,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0.85714285714285698</v>
@@ -6427,7 +6307,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>0.85714285714285698</v>
@@ -6444,7 +6324,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0.85714285714285698</v>
@@ -6461,7 +6341,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>0.81384373361300399</v>
@@ -6478,7 +6358,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>0.775144813059505</v>
@@ -6495,7 +6375,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>0.75</v>
@@ -6512,7 +6392,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>0.75</v>
@@ -6529,7 +6409,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>0.71428571428571397</v>
@@ -6546,7 +6426,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>0.71428571428571397</v>
@@ -6563,7 +6443,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0.71248025276461202</v>
@@ -6580,7 +6460,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>0.70844257996853699</v>
@@ -6597,7 +6477,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>0.68694284216046098</v>
@@ -6614,7 +6494,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>0.66666666666666596</v>
@@ -6631,7 +6511,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>0.66666666666666596</v>
@@ -6648,7 +6528,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0.66666666666666596</v>
@@ -6665,7 +6545,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0.66666666666666596</v>
@@ -6682,7 +6562,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0.66666666666666596</v>
@@ -6699,7 +6579,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>0.66666666666666596</v>
@@ -6716,7 +6596,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>0.66666666666666596</v>
@@ -6733,7 +6613,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0.66666666666666596</v>
@@ -6750,7 +6630,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>0.66666666666666596</v>
@@ -6767,7 +6647,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>0.66666666666666596</v>
@@ -6784,7 +6664,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>0.66666666666666596</v>
@@ -6801,7 +6681,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>0.66666666666666596</v>
@@ -6818,7 +6698,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>0.66666666666666596</v>
@@ -6835,7 +6715,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.66666666666666596</v>
@@ -6852,7 +6732,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>0.66666666666666596</v>
@@ -6869,7 +6749,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0.66666666666666596</v>
@@ -6886,7 +6766,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>0.66666666666666596</v>
@@ -6903,7 +6783,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="B36">
         <v>0.66666666666666596</v>
@@ -6920,7 +6800,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>0.66666666666666596</v>
@@ -6937,7 +6817,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B38">
         <v>0.66666666666666596</v>
@@ -6954,7 +6834,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>0.66666666666666596</v>
@@ -6971,7 +6851,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="B40">
         <v>0.66666666666666596</v>
@@ -6988,7 +6868,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>0.63823064770932003</v>
@@ -7005,7 +6885,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B42">
         <v>0.63823064770932003</v>
@@ -7022,7 +6902,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0.63823064770932003</v>
@@ -7039,7 +6919,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B44">
         <v>0.63665086887835698</v>
@@ -7056,7 +6936,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>0.62822538177988396</v>
@@ -7073,7 +6953,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>0.625</v>
@@ -7090,7 +6970,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B47">
         <v>0.61904761904761896</v>
@@ -7107,7 +6987,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="B48">
         <v>0.61904761904761896</v>
@@ -7124,7 +7004,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>0.61904761904761896</v>
@@ -7141,7 +7021,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>0.61904761904761896</v>
@@ -7158,7 +7038,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>0.58333333333333304</v>
@@ -7175,7 +7055,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0.58333333333333304</v>
@@ -7192,7 +7072,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>0.58333333333333304</v>
@@ -7209,7 +7089,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="B54">
         <v>0.58333333333333304</v>
@@ -7226,7 +7106,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>0.58333333333333304</v>
@@ -7243,7 +7123,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B56">
         <v>0.58333333333333304</v>
@@ -7260,7 +7140,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>0.58333333333333304</v>
@@ -7277,7 +7157,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="B58">
         <v>0.58333333333333304</v>
@@ -7294,7 +7174,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>0.58333333333333304</v>
@@ -7311,7 +7191,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>0.58333333333333304</v>
@@ -7328,7 +7208,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>0.58333333333333304</v>
@@ -7345,7 +7225,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="B62">
         <v>0.57682223387519604</v>
@@ -7362,7 +7242,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B63">
         <v>0.57609268035808303</v>
@@ -7379,7 +7259,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="B64">
         <v>0.57157839538542199</v>
@@ -7396,7 +7276,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="B65">
         <v>0.57142857142857095</v>
@@ -7413,7 +7293,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="B66">
         <v>0.57142857142857095</v>
@@ -7430,7 +7310,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="B67">
         <v>0.57142857142857095</v>
@@ -7447,7 +7327,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="B68">
         <v>0.57142857142857095</v>
@@ -7464,7 +7344,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="B69">
         <v>0.56004195070791796</v>
@@ -7481,7 +7361,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B70">
         <v>0.54166666666666596</v>
@@ -7498,7 +7378,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B71">
         <v>0.54166666666666596</v>
@@ -7515,7 +7395,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="B72">
         <v>0.54166666666666596</v>
@@ -7532,7 +7412,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="B73">
         <v>0.54166666666666596</v>
@@ -7549,7 +7429,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="B74">
         <v>0.54166666666666596</v>
@@ -7566,7 +7446,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="B75">
         <v>0.5</v>
@@ -7583,7 +7463,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B76">
         <v>0.48033560566334499</v>
@@ -7600,7 +7480,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="B77">
         <v>0.45833333333333298</v>
@@ -7617,7 +7497,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="B78">
         <v>0.45833333333333298</v>
@@ -7634,7 +7514,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B79">
         <v>0.43127962085308003</v>
@@ -7651,7 +7531,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B80">
         <v>0.41666666666666602</v>
@@ -7668,7 +7548,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="B81">
         <v>0.41666666666666602</v>
@@ -7689,7 +7569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9084,7 +8964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
